--- a/ResultadoEleicoesDistritos/VILA REAL_ALIJÓ.xlsx
+++ b/ResultadoEleicoesDistritos/VILA REAL_ALIJÓ.xlsx
@@ -597,64 +597,64 @@
         <v>3308</v>
       </c>
       <c r="H2" t="n">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="I2" t="n">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="J2" t="n">
-        <v>1410</v>
+        <v>1386</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="M2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N2" t="n">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
         <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="S2" t="n">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="T2" t="n">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="U2" t="n">
         <v>14</v>
       </c>
       <c r="V2" t="n">
-        <v>2150</v>
+        <v>2101</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>2054</v>
+        <v>2105</v>
       </c>
       <c r="Y2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z2" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AA2" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
